--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2410720.119831731</v>
+        <v>-2413303.151901459</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>172.0437121200129</v>
+        <v>28.93420885557965</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>48.21534234085851</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>50.68169143380753</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.574821146562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.998630822261</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.885368242567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>70.99506002739663</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.596724502523875</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>310.505017819416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.16905451678727</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>149.9901675479391</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695514</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.43112068612848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058189</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176063</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>113.9549918517048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.7059665293327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874418</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>10.74993283584231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.01627976944088</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>108.2950343703272</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>171.0385136149753</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316658</v>
+        <v>158.4533545316659</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796072</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>44.76793778823286</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253068</v>
+        <v>156.7306717253069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792619</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160358</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.5817801431597</v>
+        <v>57.58178014315973</v>
       </c>
       <c r="S28" t="n">
         <v>172.2328194346826</v>
@@ -2773,7 +2773,7 @@
         <v>243.344176756866</v>
       </c>
       <c r="W28" t="n">
-        <v>249.0085830578703</v>
+        <v>277.729531769629</v>
       </c>
       <c r="X28" t="n">
         <v>216.9161888220752</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.723851760224</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.723851760224</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366271</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784195</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736035</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760224</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4401,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588482</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886954</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068854</v>
+        <v>809.0152357068852</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459644</v>
+        <v>907.9662384596437</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181847</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181847</v>
+        <v>872.1846398173174</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450111</v>
+        <v>872.1846398173174</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145371</v>
+        <v>650.4180243868434</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145371</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="V4" t="n">
-        <v>456.2408785036204</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="W4" t="n">
-        <v>456.2408785036204</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="X4" t="n">
-        <v>456.2408785036204</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4762,13 +4762,13 @@
         <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>609.2899331452389</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>381.3003822472216</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.3003822472216</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3323.992968576317</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3118.015220960539</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3118.015220960539</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877109</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X10" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.3278112441808</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5057,34 +5057,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740068</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C13" t="n">
-        <v>513.853600740068</v>
+        <v>853.5941094450266</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277323</v>
+        <v>703.4774700326907</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>555.5643764502977</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>408.6744289523873</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.960887244721</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138409</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703078</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.811327457203</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5601,10 +5601,10 @@
         <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>551.354624631591</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>1130.419722229498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254208</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975139</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851782</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.4495204094166</v>
+        <v>663.4384611046094</v>
       </c>
       <c r="C28" t="n">
-        <v>532.3956269430874</v>
+        <v>503.3845676382803</v>
       </c>
       <c r="D28" t="n">
-        <v>391.1612769923295</v>
+        <v>503.3845676382803</v>
       </c>
       <c r="E28" t="n">
-        <v>252.1304728715141</v>
+        <v>503.3845676382803</v>
       </c>
       <c r="F28" t="n">
-        <v>252.1304728715141</v>
+        <v>458.1644284582471</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>299.8506186347047</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.0210769384805</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795881</v>
+        <v>182.7582133795877</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064184</v>
+        <v>453.1530078064186</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836508</v>
+        <v>852.257133883651</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
         <v>2087.322584687556</v>
@@ -6415,19 +6415,19 @@
         <v>2073.75220410558</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911356</v>
+        <v>1793.559266911355</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167047</v>
+        <v>1547.757068167046</v>
       </c>
       <c r="W28" t="n">
-        <v>1296.233246896471</v>
+        <v>1267.222187591663</v>
       </c>
       <c r="X28" t="n">
-        <v>1077.125985460031</v>
+        <v>1048.114926155224</v>
       </c>
       <c r="Y28" t="n">
-        <v>865.2156957780785</v>
+        <v>836.2046364732713</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,10 +6892,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2680.685310603266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7576,31 +7576,31 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>182.63932950067</v>
+        <v>325.7488327651033</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>40.716810329189</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.4559518900205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.462504043051945e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0028419604407</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.37549921168696</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>67.07129414993979</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.12601365260462</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.9838267405003</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.9597225531948</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.8157004124964</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>37.12601365260406</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512504</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796072</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559692</v>
+        <v>91.85964366773644</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160354</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>28.72094871175873</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1118739.323053749</v>
+        <v>1118739.323053748</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687492</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="E2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="I2" t="n">
         <v>40357.32998450029</v>
       </c>
-      <c r="I2" t="n">
-        <v>40357.3299845003</v>
-      </c>
       <c r="J2" t="n">
-        <v>40608.90191777585</v>
+        <v>40608.90191777582</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="N2" t="n">
         <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321417</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.975650847</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006222</v>
+        <v>12392.94474006233</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.77325356959</v>
+        <v>7034.773253569546</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006225</v>
+        <v>12392.94474006224</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445308</v>
+        <v>18330.12873445307</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997315</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="L4" t="n">
+        <v>23427.49926997312</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23427.49926997317</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23427.49926997314</v>
+      </c>
+      <c r="O4" t="n">
         <v>23427.49926997313</v>
       </c>
-      <c r="M4" t="n">
-        <v>23427.49926997312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997313</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997315</v>
-      </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
-        <v>-160478.5961722317</v>
+        <v>-160478.5961722318</v>
       </c>
       <c r="D6" t="n">
         <v>-160478.5961722315</v>
       </c>
       <c r="E6" t="n">
-        <v>-401614.3016536416</v>
+        <v>-401649.0395790779</v>
       </c>
       <c r="F6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172215</v>
       </c>
       <c r="G6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172218</v>
       </c>
       <c r="H6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172215</v>
       </c>
       <c r="I6" t="n">
-        <v>-76201.8398462865</v>
+        <v>-76236.57777172221</v>
       </c>
       <c r="J6" t="n">
-        <v>-304148.9902322494</v>
+        <v>-304171.1495610212</v>
       </c>
       <c r="K6" t="n">
-        <v>-97932.4713707366</v>
+        <v>-97932.4713707367</v>
       </c>
       <c r="L6" t="n">
-        <v>-85539.52663067415</v>
+        <v>-85539.52663067413</v>
       </c>
       <c r="M6" t="n">
-        <v>-170594.5545661862</v>
+        <v>-170594.5545661864</v>
       </c>
       <c r="N6" t="n">
-        <v>-85539.52663067433</v>
+        <v>-85539.52663067434</v>
       </c>
       <c r="O6" t="n">
-        <v>-92574.29988424397</v>
+        <v>-92574.29988424387</v>
       </c>
       <c r="P6" t="n">
-        <v>-97932.47137073657</v>
+        <v>-97932.47137073662</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507778</v>
+        <v>15.49118092507777</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961987</v>
+        <v>8.793466566961932</v>
       </c>
       <c r="P2" t="n">
         <v>15.49118092507781</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507778</v>
+        <v>15.49118092507777</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.1590205169185</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.94661193937034</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>147.5895933246982</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>107.591037285652</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>75.73292083663762</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.66292566515</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>136.2216706576738</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-7.032208304403592e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961991</v>
+        <v>8.793466566961957</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>714.932815742495</v>
+        <v>638.4800548179295</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>253.1045048722854</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>572.7987818204766</v>
+        <v>496.3460208959112</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991535</v>
+        <v>89.83994982991531</v>
       </c>
       <c r="K28" t="n">
         <v>273.1260549765969</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>114.5501250924112</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
